--- a/ref/t2dm_meta.xlsx
+++ b/ref/t2dm_meta.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repos\phecdm\ref\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5D94AD2-A36E-46DC-A245-DD0F064A0785}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A53A6145-B079-411A-83B7-D2B0946DE076}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="232">
   <si>
     <t>Variable</t>
   </si>
@@ -98,9 +98,6 @@
     <t>mmHg</t>
   </si>
   <si>
-    <t>smoking_status</t>
-  </si>
-  <si>
     <t>%</t>
   </si>
   <si>
@@ -113,9 +110,6 @@
     <t>mL/min/1.73m²</t>
   </si>
   <si>
-    <t>paired with eGFR date</t>
-  </si>
-  <si>
     <t>Urine albumin-to-creatinine ratio</t>
   </si>
   <si>
@@ -200,12 +194,6 @@
     <t>baseline DBP</t>
   </si>
   <si>
-    <t>ht_cm</t>
-  </si>
-  <si>
-    <t>wt_kg</t>
-  </si>
-  <si>
     <t>Hemoglobin A1c at baseline</t>
   </si>
   <si>
@@ -218,9 +206,6 @@
     <t>hba1c</t>
   </si>
   <si>
-    <t>egfr_epi</t>
-  </si>
-  <si>
     <t>scr</t>
   </si>
   <si>
@@ -353,382 +338,400 @@
     <t>chloride</t>
   </si>
   <si>
+    <t>Sodium (Na⁺)</t>
+  </si>
+  <si>
+    <t>sodium</t>
+  </si>
+  <si>
+    <t>Potassium (K⁺)</t>
+  </si>
+  <si>
+    <t>Chloride (Cl⁻)</t>
+  </si>
+  <si>
+    <t>Carbon Dioxide (CO₂ / Bicarbonate)</t>
+  </si>
+  <si>
+    <t>Blood Urea Nitrogen (BUN)</t>
+  </si>
+  <si>
+    <t>g/dL</t>
+  </si>
+  <si>
+    <t>Albumin</t>
+  </si>
+  <si>
+    <t>albumin</t>
+  </si>
+  <si>
+    <t>Total Bilirubin</t>
+  </si>
+  <si>
+    <t>Alkaline Phosphatase (ALP)</t>
+  </si>
+  <si>
+    <t>alp</t>
+  </si>
+  <si>
+    <t>Aspartate Aminotransferase (AST)</t>
+  </si>
+  <si>
+    <t>Alanine Aminotransferase (ALT)</t>
+  </si>
+  <si>
+    <t>Calcium</t>
+  </si>
+  <si>
+    <t>calcium</t>
+  </si>
+  <si>
+    <t>RBC Count</t>
+  </si>
+  <si>
+    <t>×10⁶/µL</t>
+  </si>
+  <si>
+    <t>Hemoglobin (Hb)</t>
+  </si>
+  <si>
+    <t>Hematocrit (Hct)</t>
+  </si>
+  <si>
+    <t>MCV (Mean Corpuscular Volume)</t>
+  </si>
+  <si>
+    <t>fL</t>
+  </si>
+  <si>
+    <t>mcv</t>
+  </si>
+  <si>
+    <t>MCH (Mean Corpuscular Hemoglobin)</t>
+  </si>
+  <si>
+    <t>pg</t>
+  </si>
+  <si>
+    <t>mch</t>
+  </si>
+  <si>
+    <t>MCHC (Mean Corpuscular Hemoglobin Concentration)</t>
+  </si>
+  <si>
+    <t>mchc</t>
+  </si>
+  <si>
+    <t>RDW (Red Cell Distribution Width)</t>
+  </si>
+  <si>
+    <t>rdw</t>
+  </si>
+  <si>
+    <t>WBC Count</t>
+  </si>
+  <si>
+    <t>×10³/µL</t>
+  </si>
+  <si>
+    <t>Neutrophils (absolute &amp; %)</t>
+  </si>
+  <si>
+    <t>cells/µL, %</t>
+  </si>
+  <si>
+    <t>neutrophils</t>
+  </si>
+  <si>
+    <t>Lymphocytes (absolute &amp; %)</t>
+  </si>
+  <si>
+    <t>lymphocytes</t>
+  </si>
+  <si>
+    <t>Monocytes (absolute &amp; %)</t>
+  </si>
+  <si>
+    <t>monocytes</t>
+  </si>
+  <si>
+    <t>Eosinophils (absolute &amp; %)</t>
+  </si>
+  <si>
+    <t>eosinophils</t>
+  </si>
+  <si>
+    <t>Basophils (absolute &amp; %)</t>
+  </si>
+  <si>
+    <t>basophils</t>
+  </si>
+  <si>
+    <t>Platelet Count</t>
+  </si>
+  <si>
+    <t>MPV (Mean Platelet Volume)</t>
+  </si>
+  <si>
+    <t>mpv</t>
+  </si>
+  <si>
+    <t>mood_do</t>
+  </si>
+  <si>
+    <t>sleep_do</t>
+  </si>
+  <si>
+    <t>alchol_do</t>
+  </si>
+  <si>
+    <t>drug_do</t>
+  </si>
+  <si>
+    <t>anxiety_do</t>
+  </si>
+  <si>
+    <t>total CCI scores at baseline</t>
+  </si>
+  <si>
+    <t>baseline indicator of mood disorder (e.g. depression, bipolar)</t>
+  </si>
+  <si>
+    <t>baseline indicator of anxiety disorder</t>
+  </si>
+  <si>
+    <t>baseline indicator of sleep disorders</t>
+  </si>
+  <si>
+    <t>baseline indicator of alchol use disorder</t>
+  </si>
+  <si>
+    <t>baseline indicator of drug use disorder (e.g., cannabis, opioid)</t>
+  </si>
+  <si>
+    <t>indicator of Thiazolidinediones use</t>
+  </si>
+  <si>
+    <t>indicator of Meformin use</t>
+  </si>
+  <si>
+    <t>indicator of Sulfonylurea use</t>
+  </si>
+  <si>
+    <t>indicator of any DPP4 use</t>
+  </si>
+  <si>
+    <t>indicator of any SGLT2 use</t>
+  </si>
+  <si>
+    <t>indicator of any GLP1RA use</t>
+  </si>
+  <si>
+    <t>insulin_use</t>
+  </si>
+  <si>
+    <t>indicator of insulin use</t>
+  </si>
+  <si>
+    <t>indicator of any statin use</t>
+  </si>
+  <si>
+    <t>antiht_use</t>
+  </si>
+  <si>
+    <t>indicator of any anti-hypertensive drug use</t>
+  </si>
+  <si>
+    <t>aspirin or other anti-thrombotic agent use</t>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t>polypharm_cnt</t>
+  </si>
+  <si>
+    <t>rbc_cnt</t>
+  </si>
+  <si>
+    <t>adi_natrank</t>
+  </si>
+  <si>
+    <t>adi_strank</t>
+  </si>
+  <si>
+    <t>date of last observation</t>
+  </si>
+  <si>
+    <t>date of death</t>
+  </si>
+  <si>
+    <t>ADI national percentile rank</t>
+  </si>
+  <si>
+    <t>ADI state percentile rank</t>
+  </si>
+  <si>
+    <t>ruca</t>
+  </si>
+  <si>
+    <t>RUCA code</t>
+  </si>
+  <si>
+    <t>follow PCORnet CDM valueset</t>
+  </si>
+  <si>
+    <t>baseline_coc</t>
+  </si>
+  <si>
+    <t>endo_visits_yr</t>
+  </si>
+  <si>
+    <t>cardio_visits_yr</t>
+  </si>
+  <si>
+    <t>Count endo visits per year</t>
+  </si>
+  <si>
+    <t>Count cards visits per year</t>
+  </si>
+  <si>
+    <t>Count nephro visits per year</t>
+  </si>
+  <si>
+    <t>Count ophth/optom visits  per year</t>
+  </si>
+  <si>
+    <t>ED visits  per year</t>
+  </si>
+  <si>
+    <t>office_visits_yr</t>
+  </si>
+  <si>
+    <t>Count office visits  per year</t>
+  </si>
+  <si>
+    <t>nephro_visits_yr</t>
+  </si>
+  <si>
+    <t>ophth_visits_yr</t>
+  </si>
+  <si>
+    <t>ip_los_yr</t>
+  </si>
+  <si>
+    <t>Cumulative inpatient length of stay per year</t>
+  </si>
+  <si>
+    <t>payor_type</t>
+  </si>
+  <si>
+    <t>height at baseline</t>
+  </si>
+  <si>
+    <t>weight at baseline</t>
+  </si>
+  <si>
+    <t>BMI at baseline</t>
+  </si>
+  <si>
+    <t>BMI classification at baseline</t>
+  </si>
+  <si>
+    <t>Units / Formats</t>
+  </si>
+  <si>
+    <t>vx_flu</t>
+  </si>
+  <si>
+    <t>days</t>
+  </si>
+  <si>
+    <t>duration of observable at baseline (between first ever observation and index date)</t>
+  </si>
+  <si>
+    <t>dia_nephr</t>
+  </si>
+  <si>
+    <t>dia_retino</t>
+  </si>
+  <si>
+    <t>dia_neuro</t>
+  </si>
+  <si>
+    <t>dia_heart</t>
+  </si>
+  <si>
+    <t>indicator of progression to diabetic nephropathy</t>
+  </si>
+  <si>
+    <t>indicator of progression to diabetic retinopathy</t>
+  </si>
+  <si>
+    <t>indicator of progression to diabetic neuropathy</t>
+  </si>
+  <si>
+    <t>indicator of progression to diabetic heart disease</t>
+  </si>
+  <si>
+    <t>days from index to progression to diabetic nephropathy</t>
+  </si>
+  <si>
+    <t>days from index to progression to diabetic retinopathy</t>
+  </si>
+  <si>
+    <t>days from index to progression to diabetic neuropathy</t>
+  </si>
+  <si>
+    <t>days from index to progression to diabetic heart disease</t>
+  </si>
+  <si>
+    <t>time2_dia_nephr</t>
+  </si>
+  <si>
+    <t>time2_dia_retino</t>
+  </si>
+  <si>
+    <t>time2_dia_neuro</t>
+  </si>
+  <si>
+    <t>time2_dia_heart</t>
+  </si>
+  <si>
+    <t>serum creatinine</t>
+  </si>
+  <si>
+    <t>egfr</t>
+  </si>
+  <si>
+    <t>bilirubin</t>
+  </si>
+  <si>
+    <t>bicarb</t>
+  </si>
+  <si>
+    <t>hct</t>
+  </si>
+  <si>
+    <t>wbc</t>
+  </si>
+  <si>
+    <t>platelet</t>
+  </si>
+  <si>
+    <t>smoker_ind</t>
+  </si>
+  <si>
+    <t>indicator of smoker</t>
+  </si>
+  <si>
+    <t>ht</t>
+  </si>
+  <si>
+    <t>wt</t>
+  </si>
+  <si>
     <t>hemoglobin</t>
-  </si>
-  <si>
-    <t>hematocrit</t>
-  </si>
-  <si>
-    <t>Sodium (Na⁺)</t>
-  </si>
-  <si>
-    <t>sodium</t>
-  </si>
-  <si>
-    <t>Potassium (K⁺)</t>
-  </si>
-  <si>
-    <t>Chloride (Cl⁻)</t>
-  </si>
-  <si>
-    <t>Carbon Dioxide (CO₂ / Bicarbonate)</t>
-  </si>
-  <si>
-    <t>co2_bicarb</t>
-  </si>
-  <si>
-    <t>Blood Urea Nitrogen (BUN)</t>
-  </si>
-  <si>
-    <t>g/dL</t>
-  </si>
-  <si>
-    <t>Albumin</t>
-  </si>
-  <si>
-    <t>albumin</t>
-  </si>
-  <si>
-    <t>Total Bilirubin</t>
-  </si>
-  <si>
-    <t>total_bilirubin</t>
-  </si>
-  <si>
-    <t>Alkaline Phosphatase (ALP)</t>
-  </si>
-  <si>
-    <t>alp</t>
-  </si>
-  <si>
-    <t>Aspartate Aminotransferase (AST)</t>
-  </si>
-  <si>
-    <t>Alanine Aminotransferase (ALT)</t>
-  </si>
-  <si>
-    <t>Calcium</t>
-  </si>
-  <si>
-    <t>calcium</t>
-  </si>
-  <si>
-    <t>RBC Count</t>
-  </si>
-  <si>
-    <t>×10⁶/µL</t>
-  </si>
-  <si>
-    <t>Hemoglobin (Hb)</t>
-  </si>
-  <si>
-    <t>Hematocrit (Hct)</t>
-  </si>
-  <si>
-    <t>MCV (Mean Corpuscular Volume)</t>
-  </si>
-  <si>
-    <t>fL</t>
-  </si>
-  <si>
-    <t>mcv</t>
-  </si>
-  <si>
-    <t>MCH (Mean Corpuscular Hemoglobin)</t>
-  </si>
-  <si>
-    <t>pg</t>
-  </si>
-  <si>
-    <t>mch</t>
-  </si>
-  <si>
-    <t>MCHC (Mean Corpuscular Hemoglobin Concentration)</t>
-  </si>
-  <si>
-    <t>mchc</t>
-  </si>
-  <si>
-    <t>RDW (Red Cell Distribution Width)</t>
-  </si>
-  <si>
-    <t>rdw</t>
-  </si>
-  <si>
-    <t>WBC Count</t>
-  </si>
-  <si>
-    <t>×10³/µL</t>
-  </si>
-  <si>
-    <t>Neutrophils (absolute &amp; %)</t>
-  </si>
-  <si>
-    <t>cells/µL, %</t>
-  </si>
-  <si>
-    <t>neutrophils</t>
-  </si>
-  <si>
-    <t>Lymphocytes (absolute &amp; %)</t>
-  </si>
-  <si>
-    <t>lymphocytes</t>
-  </si>
-  <si>
-    <t>Monocytes (absolute &amp; %)</t>
-  </si>
-  <si>
-    <t>monocytes</t>
-  </si>
-  <si>
-    <t>Eosinophils (absolute &amp; %)</t>
-  </si>
-  <si>
-    <t>eosinophils</t>
-  </si>
-  <si>
-    <t>Basophils (absolute &amp; %)</t>
-  </si>
-  <si>
-    <t>basophils</t>
-  </si>
-  <si>
-    <t>Platelet Count</t>
-  </si>
-  <si>
-    <t>MPV (Mean Platelet Volume)</t>
-  </si>
-  <si>
-    <t>mpv</t>
-  </si>
-  <si>
-    <t>mood_do</t>
-  </si>
-  <si>
-    <t>sleep_do</t>
-  </si>
-  <si>
-    <t>alchol_do</t>
-  </si>
-  <si>
-    <t>drug_do</t>
-  </si>
-  <si>
-    <t>anxiety_do</t>
-  </si>
-  <si>
-    <t>total CCI scores at baseline</t>
-  </si>
-  <si>
-    <t>baseline indicator of mood disorder (e.g. depression, bipolar)</t>
-  </si>
-  <si>
-    <t>baseline indicator of anxiety disorder</t>
-  </si>
-  <si>
-    <t>baseline indicator of sleep disorders</t>
-  </si>
-  <si>
-    <t>baseline indicator of alchol use disorder</t>
-  </si>
-  <si>
-    <t>baseline indicator of drug use disorder (e.g., cannabis, opioid)</t>
-  </si>
-  <si>
-    <t>indicator of Thiazolidinediones use</t>
-  </si>
-  <si>
-    <t>indicator of Meformin use</t>
-  </si>
-  <si>
-    <t>indicator of Sulfonylurea use</t>
-  </si>
-  <si>
-    <t>indicator of any DPP4 use</t>
-  </si>
-  <si>
-    <t>indicator of any SGLT2 use</t>
-  </si>
-  <si>
-    <t>indicator of any GLP1RA use</t>
-  </si>
-  <si>
-    <t>insulin_use</t>
-  </si>
-  <si>
-    <t>indicator of insulin use</t>
-  </si>
-  <si>
-    <t>indicator of any statin use</t>
-  </si>
-  <si>
-    <t>antiht_use</t>
-  </si>
-  <si>
-    <t>indicator of any anti-hypertensive drug use</t>
-  </si>
-  <si>
-    <t>aspirin or other anti-thrombotic agent use</t>
-  </si>
-  <si>
-    <t>binary</t>
-  </si>
-  <si>
-    <t>polypharm_cnt</t>
-  </si>
-  <si>
-    <t>platelet_cnt</t>
-  </si>
-  <si>
-    <t>rbc_cnt</t>
-  </si>
-  <si>
-    <t>wbc_cnt</t>
-  </si>
-  <si>
-    <t>adi_natrank</t>
-  </si>
-  <si>
-    <t>adi_strank</t>
-  </si>
-  <si>
-    <t>date of last observation</t>
-  </si>
-  <si>
-    <t>date of death</t>
-  </si>
-  <si>
-    <t>ADI national percentile rank</t>
-  </si>
-  <si>
-    <t>ADI state percentile rank</t>
-  </si>
-  <si>
-    <t>ruca</t>
-  </si>
-  <si>
-    <t>RUCA code</t>
-  </si>
-  <si>
-    <t>follow PCORnet CDM valueset</t>
-  </si>
-  <si>
-    <t>baseline_coc</t>
-  </si>
-  <si>
-    <t>endo_visits_yr</t>
-  </si>
-  <si>
-    <t>cardio_visits_yr</t>
-  </si>
-  <si>
-    <t>Count endo visits per year</t>
-  </si>
-  <si>
-    <t>Count cards visits per year</t>
-  </si>
-  <si>
-    <t>Count nephro visits per year</t>
-  </si>
-  <si>
-    <t>Count ophth/optom visits  per year</t>
-  </si>
-  <si>
-    <t>ED visits  per year</t>
-  </si>
-  <si>
-    <t>office_visits_yr</t>
-  </si>
-  <si>
-    <t>Count office visits  per year</t>
-  </si>
-  <si>
-    <t>nephro_visits_yr</t>
-  </si>
-  <si>
-    <t>ophth_visits_yr</t>
-  </si>
-  <si>
-    <t>ip_los_yr</t>
-  </si>
-  <si>
-    <t>Cumulative inpatient length of stay per year</t>
-  </si>
-  <si>
-    <t>payor_type</t>
-  </si>
-  <si>
-    <t>height at baseline</t>
-  </si>
-  <si>
-    <t>weight at baseline</t>
-  </si>
-  <si>
-    <t>BMI at baseline</t>
-  </si>
-  <si>
-    <t>BMI classification at baseline</t>
-  </si>
-  <si>
-    <t>Units / Formats</t>
-  </si>
-  <si>
-    <t>vx_flu</t>
-  </si>
-  <si>
-    <t>days</t>
-  </si>
-  <si>
-    <t>duration of observable at baseline (between first ever observation and index date)</t>
-  </si>
-  <si>
-    <t>dia_nephr</t>
-  </si>
-  <si>
-    <t>dia_retino</t>
-  </si>
-  <si>
-    <t>dia_neuro</t>
-  </si>
-  <si>
-    <t>dia_heart</t>
-  </si>
-  <si>
-    <t>indicator of progression to diabetic nephropathy</t>
-  </si>
-  <si>
-    <t>indicator of progression to diabetic retinopathy</t>
-  </si>
-  <si>
-    <t>indicator of progression to diabetic neuropathy</t>
-  </si>
-  <si>
-    <t>indicator of progression to diabetic heart disease</t>
-  </si>
-  <si>
-    <t>days from index to progression to diabetic nephropathy</t>
-  </si>
-  <si>
-    <t>days from index to progression to diabetic retinopathy</t>
-  </si>
-  <si>
-    <t>days from index to progression to diabetic neuropathy</t>
-  </si>
-  <si>
-    <t>days from index to progression to diabetic heart disease</t>
-  </si>
-  <si>
-    <t>time2_dia_nephr</t>
-  </si>
-  <si>
-    <t>time2_dia_retino</t>
-  </si>
-  <si>
-    <t>time2_dia_neuro</t>
-  </si>
-  <si>
-    <t>time2_dia_heart</t>
   </si>
 </sst>
 </file>
@@ -758,7 +761,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -768,6 +771,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -794,7 +803,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -805,6 +814,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Heading 2" xfId="1" builtinId="17"/>
@@ -1088,8 +1101,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
+      <selection activeCell="B90" sqref="B90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1105,18 +1118,18 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
@@ -1131,7 +1144,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>5</v>
@@ -1157,7 +1170,7 @@
         <v>10</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>2</v>
@@ -1169,7 +1182,7 @@
         <v>11</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>2</v>
@@ -1178,10 +1191,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>2</v>
@@ -1190,10 +1203,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>20</v>
+        <v>227</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>191</v>
+        <v>228</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>2</v>
@@ -1202,7 +1215,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>13</v>
@@ -1214,10 +1227,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>54</v>
+        <v>229</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>14</v>
@@ -1228,10 +1241,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>55</v>
+        <v>230</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>14</v>
@@ -1245,7 +1258,7 @@
         <v>17</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>14</v>
@@ -1256,10 +1269,10 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>2</v>
@@ -1267,10 +1280,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>52</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>6</v>
@@ -1281,10 +1294,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>53</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>6</v>
@@ -1295,948 +1308,948 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="D16" s="1"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="D17" s="1"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="D18" s="1"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="D19" s="1"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="D20" s="1"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="D21" s="1"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="D22" s="1"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="D23" s="1"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="D24" s="1"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="D25" s="1"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="D26" s="1"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="D27" s="1"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="D28" s="1"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="D29" s="1"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="D30" s="1"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="D31" s="1"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
+    <row r="32" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B35" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
+      <c r="C35" s="4" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B36" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>178</v>
+      <c r="C36" s="4" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>25</v>
+        <v>220</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>60</v>
+        <v>221</v>
       </c>
       <c r="B40" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D40" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="41" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="48" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="B50" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="B49" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>32</v>
+      <c r="C50" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="51" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>22</v>
+        <v>106</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="53" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="54" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="55" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="56" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>126</v>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="58" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>105</v>
+        <v>231</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B59" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>21</v>
+    </row>
+    <row r="59" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="60" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D64" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="B60" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="1" t="s">
+    </row>
+    <row r="65" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="B65" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="C61" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D61" s="1" t="s">
+      <c r="C65" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D65" s="4" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="62" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="1" t="s">
+    <row r="66" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="B66" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="C62" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="1" t="s">
+      <c r="C66" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="B67" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="C63" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="B64" s="1" t="s">
+      <c r="C67" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="B68" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="C64" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="1" t="s">
+      <c r="C68" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="B70" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="B65" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="1" t="s">
+      <c r="C70" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="B71" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="C66" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>130</v>
+      <c r="C71" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A79" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="B82" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B79" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A80" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A81" s="1" t="s">
+      <c r="C82" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="B83" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B81" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A82" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A83" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C83" s="1" t="s">
+      <c r="C83" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A85" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="C85" s="1" t="s">
+    <row r="85" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="C85" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A86" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="C86" s="1" t="s">
+    <row r="86" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="C86" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A87" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="C87" s="1" t="s">
+    <row r="87" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="C87" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A88" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="C88" s="1" t="s">
+    <row r="88" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="C88" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>6</v>
@@ -2244,24 +2257,24 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>2</v>
@@ -2269,143 +2282,143 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A94" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="C94" s="1" t="s">
+    <row r="94" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C94" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A95" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="C95" s="1" t="s">
+    <row r="95" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C95" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>5</v>
@@ -2416,7 +2429,7 @@
         <v>12</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>5</v>
